--- a/01_Vor_und_Nachbereitung_von_XLSX_Dateien_für_die_Übersetzung/Code/files/DPDHL-Chatbot-Export.xlsx
+++ b/01_Vor_und_Nachbereitung_von_XLSX_Dateien_für_die_Übersetzung/Code/files/DPDHL-Chatbot-Export.xlsx
@@ -37249,13 +37249,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1413D906-6F5A-4635-8E2C-8B0C59FCD57F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1846D61B-DEFB-4E59-94D6-4E6BA2C0BFA5}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FC5AA1C-799E-4FC2-9BFB-74721A6EE2A3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{531FC328-F3F1-4544-9F68-E65AC995899F}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B84689AE-5713-4A67-BB96-E8840790115D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D38242D-6B05-4085-98FC-2FE2281EA556}"/>
 </file>